--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatchNewQuote_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatchNewQuote_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gw3eraj\projects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="1164" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>VIN</t>
   </si>
@@ -152,61 +152,88 @@
     <t>N</t>
   </si>
   <si>
+    <t>3.6L V6</t>
+  </si>
+  <si>
+    <t>FRONT, HEAD &amp; SIDE AIRBAGS</t>
+  </si>
+  <si>
+    <t>D-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
+  </si>
+  <si>
+    <t>1G1ZJ5SU&amp;G</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>CHEV</t>
+  </si>
+  <si>
+    <t>MALIBU</t>
+  </si>
+  <si>
+    <t>MALIBU HYBRID</t>
+  </si>
+  <si>
+    <t>MALIBU HYB</t>
+  </si>
+  <si>
+    <t>CHEVROLET AUTO</t>
+  </si>
+  <si>
+    <t>CHEVROLET MALIBU</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>1.8L I4 HYBRID</t>
+  </si>
+  <si>
+    <t>SED1.8L I4 HYBRID</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>000W</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>PD001</t>
+  </si>
+  <si>
+    <t>UM001</t>
+  </si>
+  <si>
+    <t>MP001</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>MP002</t>
+  </si>
+  <si>
     <t>SYMBOL_2000</t>
-  </si>
-  <si>
-    <t>3.6L V6</t>
-  </si>
-  <si>
-    <t>FRONT, HEAD &amp; SIDE AIRBAGS</t>
-  </si>
-  <si>
-    <t>D-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>1G1ZJ5SU&amp;G</t>
-  </si>
-  <si>
-    <t>CHEVROLET</t>
-  </si>
-  <si>
-    <t>CHEV</t>
-  </si>
-  <si>
-    <t>MALIBU</t>
-  </si>
-  <si>
-    <t>MALIBU HYBRID</t>
-  </si>
-  <si>
-    <t>MALIBU HYB</t>
-  </si>
-  <si>
-    <t>CHEVROLET AUTO</t>
-  </si>
-  <si>
-    <t>CHEVROLET MALIBU</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>SED</t>
-  </si>
-  <si>
-    <t>1.8L I4 HYBRID</t>
-  </si>
-  <si>
-    <t>SED1.8L I4 HYBRID</t>
-  </si>
-  <si>
-    <t>2WD</t>
-  </si>
-  <si>
-    <t>000W</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
   </si>
 </sst>
 </file>
@@ -276,11 +303,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -564,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,39 +736,39 @@
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3">
         <v>2016</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="O2" s="3">
         <v>4</v>
@@ -750,16 +780,16 @@
         <v>214</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3">
         <v>2</v>
@@ -771,7 +801,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="3">
         <v>21</v>
@@ -783,16 +813,16 @@
         <v>32</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" s="3">
         <v>20000101</v>
@@ -805,39 +835,39 @@
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3">
         <v>2016</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="3">
         <v>4</v>
@@ -849,16 +879,16 @@
         <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S3" s="3">
         <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V3" s="3">
         <v>2</v>
@@ -870,7 +900,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="3">
         <v>21</v>
@@ -882,16 +912,16 @@
         <v>32</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG3" s="3">
         <v>20180611</v>
@@ -901,6 +931,204 @@
       </c>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>214</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>214</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>20180611</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatchNewQuote_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatchNewQuote_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>VIN</t>
   </si>
@@ -110,9 +110,6 @@
     <t>ALTFUEL</t>
   </si>
   <si>
-    <t>WAG</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -149,91 +146,76 @@
     <t>RESTRAINTS_DISCOUNT</t>
   </si>
   <si>
+    <t>D-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
+  </si>
+  <si>
+    <t>1G1ZJ5SU&amp;G</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>CHEV</t>
+  </si>
+  <si>
+    <t>MALIBU</t>
+  </si>
+  <si>
+    <t>MALIBU HYBRID</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>1.8L I4 HYBRID</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>000W</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>PD001</t>
+  </si>
+  <si>
+    <t>UM001</t>
+  </si>
+  <si>
+    <t>MP001</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>FRNT/HEAD/SIDE/REAR SIDE AIRBAGS</t>
+  </si>
+  <si>
+    <t>MP002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>3.6L V6</t>
-  </si>
-  <si>
-    <t>FRONT, HEAD &amp; SIDE AIRBAGS</t>
-  </si>
-  <si>
-    <t>D-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>1G1ZJ5SU&amp;G</t>
-  </si>
-  <si>
-    <t>CHEVROLET</t>
-  </si>
-  <si>
-    <t>CHEV</t>
-  </si>
-  <si>
-    <t>MALIBU</t>
-  </si>
-  <si>
-    <t>MALIBU HYBRID</t>
-  </si>
-  <si>
-    <t>MALIBU HYB</t>
-  </si>
-  <si>
-    <t>CHEVROLET AUTO</t>
-  </si>
-  <si>
-    <t>CHEVROLET MALIBU</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>SED</t>
-  </si>
-  <si>
-    <t>1.8L I4 HYBRID</t>
-  </si>
-  <si>
-    <t>SED1.8L I4 HYBRID</t>
-  </si>
-  <si>
-    <t>2WD</t>
-  </si>
-  <si>
-    <t>000W</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
-  </si>
-  <si>
-    <t>SYMBOL_2017</t>
-  </si>
-  <si>
-    <t>BI001</t>
-  </si>
-  <si>
-    <t>PD001</t>
-  </si>
-  <si>
-    <t>UM001</t>
-  </si>
-  <si>
-    <t>MP001</t>
-  </si>
-  <si>
-    <t>BI002</t>
-  </si>
-  <si>
-    <t>PD002</t>
-  </si>
-  <si>
-    <t>UM002</t>
-  </si>
-  <si>
-    <t>MP002</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000</t>
   </si>
 </sst>
 </file>
@@ -303,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -311,6 +293,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -594,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,6 +596,7 @@
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.6640625" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
@@ -621,6 +607,7 @@
     <col min="27" max="27" width="13.6640625" customWidth="1"/>
     <col min="33" max="33" width="19.88671875" customWidth="1"/>
     <col min="34" max="34" width="21.88671875" customWidth="1"/>
+    <col min="35" max="35" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,425 +697,237 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3">
         <v>2016</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O2" s="3">
         <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3">
         <v>214</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="3">
+      <c r="V2" s="5">
         <v>2</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>53</v>
+      <c r="AE2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="AG2" s="3">
         <v>20000101</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3">
         <v>2016</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="M3" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O3" s="3">
         <v>4</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="3">
         <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="S3" s="3">
         <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="V3" s="5">
         <v>2</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>53</v>
+      <c r="AC3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="AG3" s="3">
-        <v>20180611</v>
+        <v>20160101</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="3">
-        <v>4</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>214</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="3">
-        <v>2</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="3">
-        <v>4</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>214</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>21</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>21</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>20180611</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
